--- a/results/meiosis.xlsx
+++ b/results/meiosis.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gol22pin/Documents/Lichen_project_TSL/08_isolation_trebouxia/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DDB5D8-B629-0D4D-BACE-0D8D991FBDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF026DF8-217B-2742-AD3B-AB8D6AC2DB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1220" windowWidth="27640" windowHeight="15500" xr2:uid="{FF31E280-F39D-904E-99E7-EEC0017E27EA}"/>
+    <workbookView xWindow="1160" yWindow="1160" windowWidth="27640" windowHeight="15500" xr2:uid="{FF31E280-F39D-904E-99E7-EEC0017E27EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="379">
   <si>
     <t>GTX0536PRED_012574</t>
   </si>
@@ -414,6 +415,765 @@
   </si>
   <si>
     <t>Generative cell-specific protein</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_000187</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_000187-T1</t>
+  </si>
+  <si>
+    <t>hypothetical protein</t>
+  </si>
+  <si>
+    <t>PF15305</t>
+  </si>
+  <si>
+    <t>IPR029302 Intraflagellar transport protein 43</t>
+  </si>
+  <si>
+    <t>GO_component: GO:0030991 - intraciliary transport particle A [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_001469</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_001469-T1</t>
+  </si>
+  <si>
+    <t>IPR039341 Cilia- and flagella-associated protein 99</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_002004</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_002004-T1</t>
+  </si>
+  <si>
+    <t>PF14886</t>
+  </si>
+  <si>
+    <t>IPR029214 Cilia- and flagella-associated protein 144</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_002276</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_002276-T1</t>
+  </si>
+  <si>
+    <t>IPR011990 Tetratricopeptide-like helical domain superfamily;IPR039586 Cilia- and flagella-associated protein 46</t>
+  </si>
+  <si>
+    <t>GO_function: GO:0005515 - protein binding [Evidence IEA];GO_process: GO:0060294 - cilium movement involved in cell motility [Evidence IEA];GO_process: GO:0035082 - axoneme assembly [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_002488</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_002488-T1</t>
+  </si>
+  <si>
+    <t>PF14825</t>
+  </si>
+  <si>
+    <t>IPR029147 Cilia- and flagella-associated protein 77</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_003619</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_003619-T1</t>
+  </si>
+  <si>
+    <t>GTX0536_4</t>
+  </si>
+  <si>
+    <t>PF12018</t>
+  </si>
+  <si>
+    <t>IPR021897 Cilia- and flagella-associated protein 206</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_003743</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_003743-T1</t>
+  </si>
+  <si>
+    <t>IPR029602 Intraflagellar transport protein 74</t>
+  </si>
+  <si>
+    <t>GO_component: GO:0030992 - intraciliary transport particle B [Evidence IEA];GO_function: GO:0048487 - beta-tubulin binding [Evidence IEA];GO_process: GO:0060271 - cilium assembly [Evidence IEA];GO_process: GO:0042073 - intraciliary transport [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_004612</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_004612-T1</t>
+  </si>
+  <si>
+    <t>GTX0536_5</t>
+  </si>
+  <si>
+    <t>PF13879</t>
+  </si>
+  <si>
+    <t>IPR029488 Hemingway/CFA97;IPR038791 Cilia- and flagella-associated protein 97</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_004827</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_004827-T1</t>
+  </si>
+  <si>
+    <t>PF14738</t>
+  </si>
+  <si>
+    <t>IPR026720 Cilia- and flagella-associated protein 91;IPR032840 CFAP91 domain</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006026</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006026-T1</t>
+  </si>
+  <si>
+    <t>PF14781;PF14782;PF14783</t>
+  </si>
+  <si>
+    <t>IPR016616 Bardet-Biedl syndrome 2 protein;IPR029333 Ciliary BBSome complex subunit 2, C-terminal domain;IPR029429 Ciliary BBSome complex subunit 2, middle region;IPR029430 Ciliary BBSome complex subunit 2, N-terminal;IPR036322 WD40-repeat-containing domain superfamily</t>
+  </si>
+  <si>
+    <t>GO_component: GO:0034464 - BBSome [Evidence IEA];GO_function: GO:0005515 - protein binding [Evidence IEA];GO_process: GO:1905515 - non-motile cilium assembly [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006503</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006503-T1</t>
+  </si>
+  <si>
+    <t>PF11069</t>
+  </si>
+  <si>
+    <t>IPR021298 Cilia- and flagella-associated protein 298</t>
+  </si>
+  <si>
+    <t>GO_process: GO:0003352 - regulation of cilium movement [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006571</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006571-T1</t>
+  </si>
+  <si>
+    <t>PF13868</t>
+  </si>
+  <si>
+    <t>IPR033253 Cilia- and flagella-associated protein 45;IPR043597 Trichohyalin-plectin-homology domain</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006762</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006762-T1</t>
+  </si>
+  <si>
+    <t>PF18383</t>
+  </si>
+  <si>
+    <t>IPR029600 Intraflagellar transport protein 81;IPR041146 IFT81, calponin homology domain;IPR043016 IFT81, N-terminal domain superfamily</t>
+  </si>
+  <si>
+    <t>GO_component: GO:0030992 - intraciliary transport particle B [Evidence IEA];GO_function: GO:0015631 - tubulin binding [Evidence IEA];GO_process: GO:0060271 - cilium assembly [Evidence IEA];GO_process: GO:0042073 - intraciliary transport [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006795</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006795-T1</t>
+  </si>
+  <si>
+    <t>PF14783</t>
+  </si>
+  <si>
+    <t>IPR029429 Ciliary BBSome complex subunit 2, middle region</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_007014</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_007014-T1</t>
+  </si>
+  <si>
+    <t>PF14926</t>
+  </si>
+  <si>
+    <t>IPR029416 Cilia- and flagella-associated protein 300</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_007453</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_007453-T1</t>
+  </si>
+  <si>
+    <t>PF07992</t>
+  </si>
+  <si>
+    <t>IPR023753 FAD/NAD(P)-binding domain;IPR032151 Cilia- and flagella-associated protein 61, N-terminal domain;IPR036188 FAD/NAD(P)-binding domain superfamily;IPR038884 Cilia- and flagella-associated protein 61</t>
+  </si>
+  <si>
+    <t>GO_function: GO:0016491 - oxidoreductase activity [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_007452</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_007452-T1</t>
+  </si>
+  <si>
+    <t>SPAG6</t>
+  </si>
+  <si>
+    <t>Sperm-associated antigen 6</t>
+  </si>
+  <si>
+    <t>PF00514</t>
+  </si>
+  <si>
+    <t>IPR000225 Armadillo;IPR011989 Armadillo-like helical;IPR016024 Armadillo-type fold</t>
+  </si>
+  <si>
+    <t>GO_function: GO:0005515 - protein binding [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_007754</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_007754-T1</t>
+  </si>
+  <si>
+    <t>IPR039986 Cilia- and flagella- associated protein 210;IPR043597 Trichohyalin-plectin-homology domain</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_008080</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_008080-T1</t>
+  </si>
+  <si>
+    <t>IPR011989 Armadillo-like helical;IPR016024 Armadillo-type fold;IPR040369 LisH domain-containing protein ARMC9</t>
+  </si>
+  <si>
+    <t>GO_component: GO:0036064 - ciliary basal body [Evidence IEA];GO_process: GO:0060271 - cilium assembly [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_008848</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_008848-T1</t>
+  </si>
+  <si>
+    <t>IPR038844 Cilia- and flagella-associated protein 157</t>
+  </si>
+  <si>
+    <t>GO_component: GO:0005929 - cilium [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_009384</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_009384-T1</t>
+  </si>
+  <si>
+    <t>BUG22</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 20</t>
+  </si>
+  <si>
+    <t>PF05018</t>
+  </si>
+  <si>
+    <t>IPR007714 CFA20 domain;IPR040441 Cilia- and flagella-associated protein 20/CFAP20DC</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_009813</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_009813-T1</t>
+  </si>
+  <si>
+    <t>IPR013783 Immunoglobulin-like fold;IPR029676 Primary ciliary dyskinesia protein 1</t>
+  </si>
+  <si>
+    <t>GO_component: GO:0005929 - cilium [Evidence IEA];GO_process: GO:0003341 - cilium movement [Evidence IEA];GO_process: GO:0060271 - cilium assembly [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_010042</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_010042-T1</t>
+  </si>
+  <si>
+    <t>PF12317</t>
+  </si>
+  <si>
+    <t>IPR022088 Intraflagellar transport complex B protein 46</t>
+  </si>
+  <si>
+    <t>GO_process: GO:0042073 - intraciliary transport [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_011269</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_011269-T1</t>
+  </si>
+  <si>
+    <t>GTX0536_16</t>
+  </si>
+  <si>
+    <t>PF15104</t>
+  </si>
+  <si>
+    <t>IPR029375 Cilia- and flagella-associated protein 141</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_012159</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_012159-T1</t>
+  </si>
+  <si>
+    <t>GTX0536_19</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_001250</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_001250-T1</t>
+  </si>
+  <si>
+    <t>ODA2</t>
+  </si>
+  <si>
+    <t>Dynein gamma chain, flagellar outer arm</t>
+  </si>
+  <si>
+    <t>PF03028;PF07728;PF08393;PF12774;PF12775;PF12777;PF12780;PF12781;PF17852;PF17857;PF18198;PF18199</t>
+  </si>
+  <si>
+    <t>IPR003593 AAA+ ATPase domain;IPR004273 Dynein heavy chain region D6 P-loop domain;IPR013602 Dynein heavy chain, linker;IPR024317 Dynein heavy chain, AAA module D4;IPR024743 Dynein heavy chain, coiled coil stalk;IPR026983 Dynein heavy chain;IPR027417 P-loop containing nucleoside triphosphate hydrolase;IPR035699 Dynein heavy chain, hydrolytic ATP-binding dynein motor region;IPR035706 Dynein heavy chain, ATP-binding dynein motor region;IPR041228 Dynein heavy chain, C-terminal domain;IPR041466 Dynein heavy chain, AAA 5 extension domain;IPR041589 Dynein heavy chain 3, AAA+ lid domain;IPR041658 Dynein heavy chain AAA lid domain;IPR042219 Dynein heavy chain AAA lid domain superfamily;IPR042222 Dynein heavy chain, domain 2, N-terminal;IPR042228 Dynein heavy chain, linker, subdomain 3;IPR043157 Dynein heavy chain, AAA1 domain, small subdomain;IPR043160 Dynein heavy chain, C-terminal domain, barrel region</t>
+  </si>
+  <si>
+    <t>GO_component: GO:0030286 - dynein complex [Evidence IEA];GO_function: GO:0045505 - dynein intermediate chain binding [Evidence IEA];GO_function: GO:0005524 - ATP binding [Evidence IEA];GO_function: GO:0008569 - ATP-dependent microtubule motor activity, minus-end-directed [Evidence IEA];GO_function: GO:0051959 - dynein light intermediate chain binding [Evidence IEA];GO_process: GO:0007018 - microtubule-based movement [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_002054</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_002054-T1</t>
+  </si>
+  <si>
+    <t>DHC10</t>
+  </si>
+  <si>
+    <t>Dynein-1-beta heavy chain, flagellar inner arm I1 complex</t>
+  </si>
+  <si>
+    <t>PF03028;PF07728;PF08385;PF08393;PF12774;PF12775;PF12777;PF12780;PF12781;PF17852;PF17857;PF18198;PF18199</t>
+  </si>
+  <si>
+    <t>IPR003593 AAA+ ATPase domain;IPR004273 Dynein heavy chain region D6 P-loop domain;IPR013594 Dynein heavy chain, tail;IPR013602 Dynein heavy chain, linker;IPR024317 Dynein heavy chain, AAA module D4;IPR024743 Dynein heavy chain, coiled coil stalk;IPR027417 P-loop containing nucleoside triphosphate hydrolase;IPR035699 Dynein heavy chain, hydrolytic ATP-binding dynein motor region;IPR035706 Dynein heavy chain, ATP-binding dynein motor region;IPR041228 Dynein heavy chain, C-terminal domain;IPR041466 Dynein heavy chain, AAA 5 extension domain;IPR041589 Dynein heavy chain 3, AAA+ lid domain;IPR041658 Dynein heavy chain AAA lid domain;IPR042219 Dynein heavy chain AAA lid domain superfamily;IPR042222 Dynein heavy chain, domain 2, N-terminal;IPR042228 Dynein heavy chain, linker, subdomain 3;IPR043157 Dynein heavy chain, AAA1 domain, small subdomain;IPR043160 Dynein heavy chain, C-terminal domain, barrel region</t>
+  </si>
+  <si>
+    <t>GO_component: GO:0030286 - dynein complex [Evidence IEA];GO_function: GO:0005524 - ATP binding [Evidence IEA];GO_function: GO:0008569 - ATP-dependent microtubule motor activity, minus-end-directed [Evidence IEA];GO_process: GO:0007018 - microtubule-based movement [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_002858</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_002858-T1</t>
+  </si>
+  <si>
+    <t>PF14769</t>
+  </si>
+  <si>
+    <t>IPR032727 Flagellar C1a complex subunit C1a-32</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_003392</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_003392-T1</t>
+  </si>
+  <si>
+    <t>PF10498</t>
+  </si>
+  <si>
+    <t>IPR019530 Intra-flagellar transport protein 57</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_003250</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_003250-T1</t>
+  </si>
+  <si>
+    <t>ODA4_1</t>
+  </si>
+  <si>
+    <t>Dynein beta chain, flagellar outer arm</t>
+  </si>
+  <si>
+    <t>PF03028;PF12775;PF12777;PF12780;PF12781;PF17852;PF17857;PF18198;PF18199</t>
+  </si>
+  <si>
+    <t>IPR004273 Dynein heavy chain region D6 P-loop domain;IPR024317 Dynein heavy chain, AAA module D4;IPR024743 Dynein heavy chain, coiled coil stalk;IPR027417 P-loop containing nucleoside triphosphate hydrolase;IPR035706 Dynein heavy chain, ATP-binding dynein motor region;IPR041228 Dynein heavy chain, C-terminal domain;IPR041466 Dynein heavy chain, AAA 5 extension domain;IPR041589 Dynein heavy chain 3, AAA+ lid domain;IPR041658 Dynein heavy chain AAA lid domain;IPR042219 Dynein heavy chain AAA lid domain superfamily;IPR043160 Dynein heavy chain, C-terminal domain, barrel region</t>
+  </si>
+  <si>
+    <t>GO_component: GO:0030286 - dynein complex [Evidence IEA];GO_function: GO:0008569 - ATP-dependent microtubule motor activity, minus-end-directed [Evidence IEA];GO_process: GO:0007018 - microtubule-based movement [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_003251</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_003251-T1</t>
+  </si>
+  <si>
+    <t>ODA4_2</t>
+  </si>
+  <si>
+    <t>PF08393;PF12774</t>
+  </si>
+  <si>
+    <t>IPR013602 Dynein heavy chain, linker;IPR027417 P-loop containing nucleoside triphosphate hydrolase;IPR035699 Dynein heavy chain, hydrolytic ATP-binding dynein motor region;IPR042222 Dynein heavy chain, domain 2, N-terminal;IPR042228 Dynein heavy chain, linker, subdomain 3;IPR043157 Dynein heavy chain, AAA1 domain, small subdomain</t>
+  </si>
+  <si>
+    <t>GO_function: GO:0005524 - ATP binding [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_004999</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_004999-T1</t>
+  </si>
+  <si>
+    <t>IPR039975 Intraflagellar transport protein 52 homolog</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006142</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006142-T1</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006825</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006825-T1</t>
+  </si>
+  <si>
+    <t>PF00400</t>
+  </si>
+  <si>
+    <t>IPR001680 WD40 repeat;IPR015943 WD40/YVTN repeat-like-containing domain superfamily;IPR036322 WD40-repeat-containing domain superfamily;IPR039857 Intraflagellar transport protein 122/121 homolog</t>
+  </si>
+  <si>
+    <t>GO_function: GO:0005515 - protein binding [Evidence IEA];GO_process: GO:0060271 - cilium assembly [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006965</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_006965-T1</t>
+  </si>
+  <si>
+    <t>IPR028172 Intraflagellar transport protein 20</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_008383</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_008383-T1</t>
+  </si>
+  <si>
+    <t>ODA11</t>
+  </si>
+  <si>
+    <t>Dynein alpha chain, flagellar outer arm</t>
+  </si>
+  <si>
+    <t>PF00630;PF01833;PF03028;PF07646;PF07728;PF08393;PF12774;PF12775;PF12777;PF12780;PF12781;PF13415;PF13418;PF13854;PF17852;PF17857;PF18198;PF18199</t>
+  </si>
+  <si>
+    <t>IPR001298 Filamin/ABP280 repeat;IPR002909 IPT domain;IPR003593 AAA+ ATPase domain;IPR004273 Dynein heavy chain region D6 P-loop domain;IPR011498 Kelch repeat type 2;IPR013602 Dynein heavy chain, linker;IPR013783 Immunoglobulin-like fold;IPR014756 Immunoglobulin E-set;IPR015915 Kelch-type beta propeller;IPR017868 Filamin/ABP280 repeat-like;IPR024317 Dynein heavy chain, AAA module D4;IPR024743 Dynein heavy chain, coiled coil stalk;IPR026983 Dynein heavy chain;IPR027417 P-loop containing nucleoside triphosphate hydrolase;IPR035699 Dynein heavy chain, hydrolytic ATP-binding dynein motor region;IPR035706 Dynein heavy chain, ATP-binding dynein motor region;IPR041228 Dynein heavy chain, C-terminal domain;IPR041466 Dynein heavy chain, AAA 5 extension domain;IPR041589 Dynein heavy chain 3, AAA+ lid domain;IPR041658 Dynein heavy chain AAA lid domain;IPR042219 Dynein heavy chain AAA lid domain superfamily;IPR042222 Dynein heavy chain, domain 2, N-terminal;IPR042228 Dynein heavy chain, linker, subdomain 3;IPR043157 Dynein heavy chain, AAA1 domain, small subdomain;IPR043160 Dynein heavy chain, C-terminal domain, barrel region</t>
+  </si>
+  <si>
+    <t>GO_component: GO:0030286 - dynein complex [Evidence IEA];GO_function: GO:0005524 - ATP binding [Evidence IEA];GO_function: GO:0051959 - dynein light intermediate chain binding [Evidence IEA];GO_function: GO:0008569 - ATP-dependent microtubule motor activity, minus-end-directed [Evidence IEA];GO_function: GO:0045505 - dynein intermediate chain binding [Evidence IEA];GO_function: GO:0005515 - protein binding [Evidence IEA];GO_process: GO:0007018 - microtubule-based movement [Evidence IEA]</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_011055</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_011055-T1</t>
+  </si>
+  <si>
+    <t>ODA6</t>
+  </si>
+  <si>
+    <t>Dynein, 70 kDa intermediate chain, flagellar outer arm</t>
+  </si>
+  <si>
+    <t>415at3041</t>
+  </si>
+  <si>
+    <t>IPR001680 WD40 repeat;IPR015943 WD40/YVTN repeat-like-containing domain superfamily;IPR036322 WD40-repeat-containing domain superfamily</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_009949</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_009949-T1</t>
+  </si>
+  <si>
+    <t>IPR003961 Fibronectin type III;IPR027912 Cilia- and flagella-associated protein 54</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_001905</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_001905-T1</t>
+  </si>
+  <si>
+    <t>PF06294;PF11971;PF15261</t>
+  </si>
+  <si>
+    <t>IPR001715 Calponin homology domain;IPR010441 CH-like domain in sperm protein;IPR027968 Jhy protein;IPR036872 CH domain superfamily</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_003264</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_003264-T1</t>
+  </si>
+  <si>
+    <t>PF14874</t>
+  </si>
+  <si>
+    <t>IPR013783 Immunoglobulin-like fold;IPR026173 Sperm-associated antigen 17</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_009299</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_009299-T1</t>
+  </si>
+  <si>
+    <t>PF06294;PF11971</t>
+  </si>
+  <si>
+    <t>IPR001715 Calponin homology domain;IPR010441 CH-like domain in sperm protein;IPR036872 CH domain superfamily</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_011587</t>
+  </si>
+  <si>
+    <t>GTX0536PRED_011587-T1</t>
+  </si>
+  <si>
+    <t>8073at3041</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Syngamy</t>
+  </si>
+  <si>
+    <t>Meiosis</t>
+  </si>
+  <si>
+    <t>Flagellum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intraflagellar transport protein 43</t>
+  </si>
+  <si>
+    <t>IFT43</t>
+  </si>
+  <si>
+    <t>Intra-flagellar transport protein 57</t>
+  </si>
+  <si>
+    <t>IFT57</t>
+  </si>
+  <si>
+    <t>Intraflagellar transport protein 74</t>
+  </si>
+  <si>
+    <t>IFT74</t>
+  </si>
+  <si>
+    <t>CFAP99</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 99</t>
+  </si>
+  <si>
+    <t>Spef-like</t>
+  </si>
+  <si>
+    <t>CH-like domain in sperm protein</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 144</t>
+  </si>
+  <si>
+    <t>CFAP144</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 46</t>
+  </si>
+  <si>
+    <t>CFAP46</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 77</t>
+  </si>
+  <si>
+    <t>CFAP77</t>
+  </si>
+  <si>
+    <t>C1a-32</t>
+  </si>
+  <si>
+    <t>Flagellar C1a complex subunit C1a-32</t>
+  </si>
+  <si>
+    <t>Sperm-associated antigen 17</t>
+  </si>
+  <si>
+    <t>SPAG17</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 206</t>
+  </si>
+  <si>
+    <t>CFAP206</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 97</t>
+  </si>
+  <si>
+    <t>CFAP97</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 91</t>
+  </si>
+  <si>
+    <t>CFAP91</t>
+  </si>
+  <si>
+    <t>Intraflagellar transport protein 52</t>
+  </si>
+  <si>
+    <t>IFT52</t>
+  </si>
+  <si>
+    <t>Ciliary BBSome complex subunit 2</t>
+  </si>
+  <si>
+    <t>BBS2</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 298</t>
+  </si>
+  <si>
+    <t>CFAP298</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 45</t>
+  </si>
+  <si>
+    <t>CFAP45</t>
+  </si>
+  <si>
+    <t>Intraflagellar transport protein 81</t>
+  </si>
+  <si>
+    <t>IFT81</t>
+  </si>
+  <si>
+    <t>Intraflagellar transport protein 122/121</t>
+  </si>
+  <si>
+    <t>IFT122/121</t>
+  </si>
+  <si>
+    <t>Intraflagellar transport protein 20</t>
+  </si>
+  <si>
+    <t>IFT20</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 300</t>
+  </si>
+  <si>
+    <t>CFAP300</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 61</t>
+  </si>
+  <si>
+    <t>CFAP61</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella- associated protein 210</t>
+  </si>
+  <si>
+    <t>CFAP210</t>
+  </si>
+  <si>
+    <t>LisH domain-containing protein ARMC9</t>
+  </si>
+  <si>
+    <t>ARMC9</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 157</t>
+  </si>
+  <si>
+    <t>CFAP157</t>
+  </si>
+  <si>
+    <t>Primary ciliary dyskinesia protein 1</t>
+  </si>
+  <si>
+    <t>PCDP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cilia- and flagella-associated protein 54</t>
+  </si>
+  <si>
+    <t>CFAP54</t>
+  </si>
+  <si>
+    <t>Intraflagellar transport complex B protein 46</t>
+  </si>
+  <si>
+    <t>IFT46</t>
+  </si>
+  <si>
+    <t>Cilia- and flagella-associated protein 141</t>
+  </si>
+  <si>
+    <t>CFAP141</t>
   </si>
 </sst>
 </file>
@@ -785,817 +1545,3857 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4356B197-E2EB-4846-954D-204F43D30DE1}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="10" max="10" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="11" max="11" width="39.6640625" customWidth="1"/>
+    <col min="15" max="15" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>124</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>483369</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>488478</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>125</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
       <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>106437</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>117776</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
       <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1251555</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1255241</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>80</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
       <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4875741</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4878140</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>123</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
       <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>430063</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>437093</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
       <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2877193</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2879200</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>121</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
       <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2419221</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2425608</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>38</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>121</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
       <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
         <v>44</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1081905</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1089316</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>4</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>45</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
       <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1962964</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1966563</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>4</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>61</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
       <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
         <v>65</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3725665</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3732025</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" t="s">
         <v>120</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>102</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>85</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>86</v>
       </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
       <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>235431</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>247492</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>9</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>87</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" t="s">
         <v>120</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>102</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>89</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>90</v>
       </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
       <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2477921</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2489560</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>87</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" t="s">
         <v>120</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>91</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
       <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
         <v>65</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4884162</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4895946</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>93</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" t="s">
         <v>120</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>96</v>
       </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
       <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
         <v>97</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2092809</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2106036</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>4</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>98</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" t="s">
         <v>120</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>99</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>100</v>
       </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
       <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
         <v>53</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>513518</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>527497</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>4</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>101</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" t="s">
         <v>120</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>102</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>103</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>104</v>
       </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
       <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1866720</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1877807</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>4</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>105</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" t="s">
         <v>120</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>107</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>108</v>
       </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
       <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
         <v>109</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>560105</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>567639</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>9</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>110</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" t="s">
         <v>120</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>102</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>111</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>112</v>
       </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
       <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
         <v>113</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1423330</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1435727</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>9</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>114</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" t="s">
         <v>120</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>102</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>115</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>116</v>
       </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
       <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
         <v>117</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>488702</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>499889</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>4</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>118</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" t="s">
         <v>84</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>119</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
       <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
         <v>57</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2185848</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2193417</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>9</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>58</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>119</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>48</v>
       </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
       <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
         <v>8</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2339135</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2343658</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>4</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>49</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" t="s">
         <v>84</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>119</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>52</v>
       </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
       <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
         <v>53</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>187024</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>198345</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>9</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>54</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>1049098</v>
+      </c>
+      <c r="I24">
+        <v>1050700</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25">
+        <v>450471</v>
+      </c>
+      <c r="I25">
+        <v>471511</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26">
+        <v>1619591</v>
+      </c>
+      <c r="I26">
+        <v>1628830</v>
+      </c>
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>320</v>
+      </c>
+      <c r="B27" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" t="s">
+        <v>303</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27">
+        <v>3573121</v>
+      </c>
+      <c r="I27">
+        <v>3576298</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>305</v>
+      </c>
+      <c r="L27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C28" t="s">
+        <v>331</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28">
+        <v>3993083</v>
+      </c>
+      <c r="I28">
+        <v>3994049</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D29" t="s">
+        <v>245</v>
+      </c>
+      <c r="E29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29">
+        <v>4293731</v>
+      </c>
+      <c r="I29">
+        <v>4324693</v>
+      </c>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30">
+        <v>5451916</v>
+      </c>
+      <c r="I30">
+        <v>5474308</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31">
+        <v>1033651</v>
+      </c>
+      <c r="I31">
+        <v>1036252</v>
+      </c>
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>320</v>
+      </c>
+      <c r="B32" t="s">
+        <v>337</v>
+      </c>
+      <c r="C32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>2842697</v>
+      </c>
+      <c r="I32">
+        <v>2845438</v>
+      </c>
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33">
+        <v>4820989</v>
+      </c>
+      <c r="I33">
+        <v>4834425</v>
+      </c>
+      <c r="J33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" t="s">
+        <v>265</v>
+      </c>
+      <c r="L33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>320</v>
+      </c>
+      <c r="B34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34">
+        <v>4834908</v>
+      </c>
+      <c r="I34">
+        <v>4842691</v>
+      </c>
+      <c r="J34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>320</v>
+      </c>
+      <c r="B35" t="s">
+        <v>340</v>
+      </c>
+      <c r="C35" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E35" t="s">
+        <v>307</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35">
+        <v>4896269</v>
+      </c>
+      <c r="I35">
+        <v>4911716</v>
+      </c>
+      <c r="J35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>320</v>
+      </c>
+      <c r="B36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" t="s">
+        <v>323</v>
+      </c>
+      <c r="D36" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" t="s">
+        <v>257</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36">
+        <v>742095</v>
+      </c>
+      <c r="I36">
+        <v>745279</v>
+      </c>
+      <c r="J36" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>320</v>
+      </c>
+      <c r="B37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C37" t="s">
+        <v>341</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37">
+        <v>1861077</v>
+      </c>
+      <c r="I37">
+        <v>1866338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>320</v>
+      </c>
+      <c r="B38" t="s">
+        <v>326</v>
+      </c>
+      <c r="C38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38">
+        <v>2491433</v>
+      </c>
+      <c r="I38">
+        <v>2496062</v>
+      </c>
+      <c r="J38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" t="s">
+        <v>154</v>
+      </c>
+      <c r="L38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" t="s">
+        <v>344</v>
+      </c>
+      <c r="C39" t="s">
+        <v>343</v>
+      </c>
+      <c r="D39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39">
+        <v>2625513</v>
+      </c>
+      <c r="I39">
+        <v>2626612</v>
+      </c>
+      <c r="J39" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>320</v>
+      </c>
+      <c r="B40" t="s">
+        <v>346</v>
+      </c>
+      <c r="C40" t="s">
+        <v>345</v>
+      </c>
+      <c r="D40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40">
+        <v>3614423</v>
+      </c>
+      <c r="I40">
+        <v>3622586</v>
+      </c>
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>320</v>
+      </c>
+      <c r="B41" t="s">
+        <v>348</v>
+      </c>
+      <c r="C41" t="s">
+        <v>347</v>
+      </c>
+      <c r="D41" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <v>317500</v>
+      </c>
+      <c r="I41">
+        <v>321381</v>
+      </c>
+      <c r="J41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>320</v>
+      </c>
+      <c r="B42" t="s">
+        <v>350</v>
+      </c>
+      <c r="C42" t="s">
+        <v>349</v>
+      </c>
+      <c r="D42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42">
+        <v>1670499</v>
+      </c>
+      <c r="I42">
+        <v>1676716</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" t="s">
+        <v>168</v>
+      </c>
+      <c r="L42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" t="s">
+        <v>338</v>
+      </c>
+      <c r="D43" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" t="s">
+        <v>277</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43">
+        <v>2235441</v>
+      </c>
+      <c r="I43">
+        <v>2237169</v>
+      </c>
+      <c r="J43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" t="s">
+        <v>352</v>
+      </c>
+      <c r="C44" t="s">
+        <v>351</v>
+      </c>
+      <c r="D44" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44">
+        <v>282031</v>
+      </c>
+      <c r="I44">
+        <v>285265</v>
+      </c>
+      <c r="J44" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" t="s">
+        <v>173</v>
+      </c>
+      <c r="L44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C45" t="s">
+        <v>353</v>
+      </c>
+      <c r="D45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45">
+        <v>670889</v>
+      </c>
+      <c r="I45">
+        <v>678564</v>
+      </c>
+      <c r="J45" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46">
+        <v>1548036</v>
+      </c>
+      <c r="I46">
+        <v>1555090</v>
+      </c>
+      <c r="J46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" t="s">
+        <v>182</v>
+      </c>
+      <c r="L46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>320</v>
+      </c>
+      <c r="B47" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" t="s">
+        <v>349</v>
+      </c>
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47">
+        <v>1713117</v>
+      </c>
+      <c r="I47">
+        <v>1719975</v>
+      </c>
+      <c r="J47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>320</v>
+      </c>
+      <c r="B48" t="s">
+        <v>358</v>
+      </c>
+      <c r="C48" t="s">
+        <v>357</v>
+      </c>
+      <c r="D48" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" t="s">
+        <v>279</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48">
+        <v>1845178</v>
+      </c>
+      <c r="I48">
+        <v>1855123</v>
+      </c>
+      <c r="J48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" t="s">
+        <v>281</v>
+      </c>
+      <c r="L48" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" t="s">
+        <v>359</v>
+      </c>
+      <c r="D49" t="s">
+        <v>283</v>
+      </c>
+      <c r="E49" t="s">
+        <v>284</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49">
+        <v>2581758</v>
+      </c>
+      <c r="I49">
+        <v>2582530</v>
+      </c>
+      <c r="J49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>320</v>
+      </c>
+      <c r="B50" t="s">
+        <v>362</v>
+      </c>
+      <c r="C50" t="s">
+        <v>361</v>
+      </c>
+      <c r="D50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50">
+        <v>2849197</v>
+      </c>
+      <c r="I50">
+        <v>2851415</v>
+      </c>
+      <c r="J50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>320</v>
+      </c>
+      <c r="B51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51">
+        <v>1473530</v>
+      </c>
+      <c r="I51">
+        <v>1478690</v>
+      </c>
+      <c r="J51" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" t="s">
+        <v>202</v>
+      </c>
+      <c r="L51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>320</v>
+      </c>
+      <c r="B52" t="s">
+        <v>364</v>
+      </c>
+      <c r="C52" t="s">
+        <v>363</v>
+      </c>
+      <c r="D52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52">
+        <v>1479053</v>
+      </c>
+      <c r="I52">
+        <v>1488584</v>
+      </c>
+      <c r="J52" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" t="s">
+        <v>195</v>
+      </c>
+      <c r="L52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>320</v>
+      </c>
+      <c r="B53" t="s">
+        <v>366</v>
+      </c>
+      <c r="C53" t="s">
+        <v>365</v>
+      </c>
+      <c r="D53" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53">
+        <v>3101113</v>
+      </c>
+      <c r="I53">
+        <v>3107230</v>
+      </c>
+      <c r="J53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B54" t="s">
+        <v>368</v>
+      </c>
+      <c r="C54" t="s">
+        <v>367</v>
+      </c>
+      <c r="D54" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54">
+        <v>1627619</v>
+      </c>
+      <c r="I54">
+        <v>1636289</v>
+      </c>
+      <c r="J54" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" t="s">
+        <v>209</v>
+      </c>
+      <c r="L54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" t="s">
+        <v>288</v>
+      </c>
+      <c r="C55" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" t="s">
+        <v>286</v>
+      </c>
+      <c r="E55" t="s">
+        <v>287</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55">
+        <v>26988</v>
+      </c>
+      <c r="I55">
+        <v>56816</v>
+      </c>
+      <c r="J55" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
+        <v>291</v>
+      </c>
+      <c r="L55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>320</v>
+      </c>
+      <c r="B56" t="s">
+        <v>370</v>
+      </c>
+      <c r="C56" t="s">
+        <v>369</v>
+      </c>
+      <c r="D56" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56">
+        <v>2515782</v>
+      </c>
+      <c r="I56">
+        <v>2522844</v>
+      </c>
+      <c r="J56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" t="s">
+        <v>213</v>
+      </c>
+      <c r="L56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>320</v>
+      </c>
+      <c r="B57" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" t="s">
+        <v>330</v>
+      </c>
+      <c r="D57" t="s">
+        <v>310</v>
+      </c>
+      <c r="E57" t="s">
+        <v>311</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57">
+        <v>1785203</v>
+      </c>
+      <c r="I57">
+        <v>1786591</v>
+      </c>
+      <c r="J57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" t="s">
+        <v>313</v>
+      </c>
+      <c r="L57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" t="s">
+        <v>215</v>
+      </c>
+      <c r="E58" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58">
+        <v>2194805</v>
+      </c>
+      <c r="I58">
+        <v>2195923</v>
+      </c>
+      <c r="J58" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>320</v>
+      </c>
+      <c r="B59" t="s">
+        <v>372</v>
+      </c>
+      <c r="C59" t="s">
+        <v>371</v>
+      </c>
+      <c r="D59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" t="s">
+        <v>222</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59">
+        <v>1444104</v>
+      </c>
+      <c r="I59">
+        <v>1453647</v>
+      </c>
+      <c r="J59" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" t="s">
+        <v>223</v>
+      </c>
+      <c r="L59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>320</v>
+      </c>
+      <c r="B60" t="s">
+        <v>374</v>
+      </c>
+      <c r="C60" t="s">
+        <v>373</v>
+      </c>
+      <c r="D60" t="s">
+        <v>299</v>
+      </c>
+      <c r="E60" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H60">
+        <v>2170366</v>
+      </c>
+      <c r="I60">
+        <v>2188613</v>
+      </c>
+      <c r="J60" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" t="s">
+        <v>301</v>
+      </c>
+      <c r="L60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" t="s">
+        <v>376</v>
+      </c>
+      <c r="C61" t="s">
+        <v>375</v>
+      </c>
+      <c r="D61" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61">
+        <v>2865495</v>
+      </c>
+      <c r="I61">
+        <v>2869075</v>
+      </c>
+      <c r="J61" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" t="s">
+        <v>228</v>
+      </c>
+      <c r="L61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>320</v>
+      </c>
+      <c r="B62" t="s">
+        <v>295</v>
+      </c>
+      <c r="C62" t="s">
+        <v>296</v>
+      </c>
+      <c r="D62" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>232</v>
+      </c>
+      <c r="H62">
+        <v>344595</v>
+      </c>
+      <c r="I62">
+        <v>351282</v>
+      </c>
+      <c r="J62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" t="s">
+        <v>298</v>
+      </c>
+      <c r="L62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>320</v>
+      </c>
+      <c r="B63" t="s">
+        <v>378</v>
+      </c>
+      <c r="C63" t="s">
+        <v>377</v>
+      </c>
+      <c r="D63" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>232</v>
+      </c>
+      <c r="H63">
+        <v>1620657</v>
+      </c>
+      <c r="I63">
+        <v>1621150</v>
+      </c>
+      <c r="J63" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" t="s">
+        <v>329</v>
+      </c>
+      <c r="C64" t="s">
+        <v>330</v>
+      </c>
+      <c r="D64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E64" t="s">
+        <v>315</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>113</v>
+      </c>
+      <c r="H64">
+        <v>988205</v>
+      </c>
+      <c r="I64">
+        <v>990548</v>
+      </c>
+      <c r="J64" t="s">
+        <v>4</v>
+      </c>
+      <c r="K64" t="s">
+        <v>313</v>
+      </c>
+      <c r="L64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" t="s">
+        <v>344</v>
+      </c>
+      <c r="C65" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" t="s">
+        <v>236</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>237</v>
+      </c>
+      <c r="H65">
+        <v>117783</v>
+      </c>
+      <c r="I65">
+        <v>121847</v>
+      </c>
+      <c r="J65" t="s">
+        <v>4</v>
+      </c>
+      <c r="K65" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C30750-673A-6748-AC62-AB8A24E21A7D}">
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>1049098</v>
+      </c>
+      <c r="F1">
+        <v>1050700</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>450471</v>
+      </c>
+      <c r="F2">
+        <v>471511</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N2" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>1619591</v>
+      </c>
+      <c r="F3">
+        <v>1628830</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>3573121</v>
+      </c>
+      <c r="F4">
+        <v>3576298</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" t="s">
+        <v>304</v>
+      </c>
+      <c r="N4" t="s">
+        <v>305</v>
+      </c>
+      <c r="P4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>3993083</v>
+      </c>
+      <c r="F5">
+        <v>3994049</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>4293731</v>
+      </c>
+      <c r="F6">
+        <v>4324693</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" t="s">
+        <v>248</v>
+      </c>
+      <c r="M6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N6" t="s">
+        <v>250</v>
+      </c>
+      <c r="P6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>5451916</v>
+      </c>
+      <c r="F7">
+        <v>5474308</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>1033651</v>
+      </c>
+      <c r="F8">
+        <v>1036252</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>2842697</v>
+      </c>
+      <c r="F9">
+        <v>2845438</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" t="s">
+        <v>254</v>
+      </c>
+      <c r="N9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>4820989</v>
+      </c>
+      <c r="F10">
+        <v>4834425</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10" t="s">
+        <v>263</v>
+      </c>
+      <c r="M10" t="s">
+        <v>264</v>
+      </c>
+      <c r="N10" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>4834908</v>
+      </c>
+      <c r="F11">
+        <v>4842691</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" t="s">
+        <v>263</v>
+      </c>
+      <c r="M11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N11" t="s">
+        <v>271</v>
+      </c>
+      <c r="P11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>4896269</v>
+      </c>
+      <c r="F12">
+        <v>4911716</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="s">
+        <v>308</v>
+      </c>
+      <c r="N12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13">
+        <v>742095</v>
+      </c>
+      <c r="F13">
+        <v>745279</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="s">
+        <v>258</v>
+      </c>
+      <c r="N13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14">
+        <v>1861077</v>
+      </c>
+      <c r="F14">
+        <v>1866338</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="s">
+        <v>150</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15">
+        <v>2491433</v>
+      </c>
+      <c r="F15">
+        <v>2496062</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="P15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16">
+        <v>2625513</v>
+      </c>
+      <c r="F16">
+        <v>2626612</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" t="s">
+        <v>159</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17">
+        <v>3614423</v>
+      </c>
+      <c r="F17">
+        <v>3622586</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" t="s">
+        <v>163</v>
+      </c>
+      <c r="N17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>317500</v>
+      </c>
+      <c r="F18">
+        <v>321381</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>128</v>
+      </c>
+      <c r="N18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19">
+        <v>1670499</v>
+      </c>
+      <c r="F19">
+        <v>1676716</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" t="s">
+        <v>167</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="P19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20">
+        <v>2235441</v>
+      </c>
+      <c r="F20">
+        <v>2237169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20" t="s">
+        <v>254</v>
+      </c>
+      <c r="N20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>282031</v>
+      </c>
+      <c r="F21">
+        <v>285265</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" t="s">
+        <v>172</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>670889</v>
+      </c>
+      <c r="F22">
+        <v>678564</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" t="s">
+        <v>177</v>
+      </c>
+      <c r="N22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>1548036</v>
+      </c>
+      <c r="F23">
+        <v>1555090</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" t="s">
+        <v>181</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="P23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>1713117</v>
+      </c>
+      <c r="F24">
+        <v>1719975</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>128</v>
+      </c>
+      <c r="M24" t="s">
+        <v>186</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>1845178</v>
+      </c>
+      <c r="F25">
+        <v>1855123</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>128</v>
+      </c>
+      <c r="M25" t="s">
+        <v>280</v>
+      </c>
+      <c r="N25" t="s">
+        <v>281</v>
+      </c>
+      <c r="P25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>2581758</v>
+      </c>
+      <c r="F26">
+        <v>2582530</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>128</v>
+      </c>
+      <c r="N26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>2849197</v>
+      </c>
+      <c r="F27">
+        <v>2851415</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" t="s">
+        <v>190</v>
+      </c>
+      <c r="N27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28">
+        <v>1473530</v>
+      </c>
+      <c r="F28">
+        <v>1478690</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" t="s">
+        <v>200</v>
+      </c>
+      <c r="M28" t="s">
+        <v>201</v>
+      </c>
+      <c r="N28" t="s">
+        <v>202</v>
+      </c>
+      <c r="P28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29">
+        <v>1479053</v>
+      </c>
+      <c r="F29">
+        <v>1488584</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>128</v>
+      </c>
+      <c r="M29" t="s">
+        <v>194</v>
+      </c>
+      <c r="N29" t="s">
+        <v>195</v>
+      </c>
+      <c r="P29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30">
+        <v>3101113</v>
+      </c>
+      <c r="F30">
+        <v>3107230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>128</v>
+      </c>
+      <c r="M30" t="s">
+        <v>177</v>
+      </c>
+      <c r="N30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31">
+        <v>1627619</v>
+      </c>
+      <c r="F31">
+        <v>1636289</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" t="s">
+        <v>209</v>
+      </c>
+      <c r="P31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>26988</v>
+      </c>
+      <c r="F32">
+        <v>56816</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>288</v>
+      </c>
+      <c r="I32" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" t="s">
+        <v>290</v>
+      </c>
+      <c r="N32" t="s">
+        <v>291</v>
+      </c>
+      <c r="P32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33">
+        <v>2515782</v>
+      </c>
+      <c r="F33">
+        <v>2522844</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>128</v>
+      </c>
+      <c r="N33" t="s">
+        <v>213</v>
+      </c>
+      <c r="P33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>1785203</v>
+      </c>
+      <c r="F34">
+        <v>1786591</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
+        <v>128</v>
+      </c>
+      <c r="M34" t="s">
+        <v>312</v>
+      </c>
+      <c r="N34" t="s">
+        <v>313</v>
+      </c>
+      <c r="P34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>2194805</v>
+      </c>
+      <c r="F35">
+        <v>2195923</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>217</v>
+      </c>
+      <c r="I35" t="s">
+        <v>218</v>
+      </c>
+      <c r="M35" t="s">
+        <v>219</v>
+      </c>
+      <c r="N35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36">
+        <v>1444104</v>
+      </c>
+      <c r="F36">
+        <v>1453647</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" t="s">
+        <v>128</v>
+      </c>
+      <c r="N36" t="s">
+        <v>223</v>
+      </c>
+      <c r="P36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37">
+        <v>2170366</v>
+      </c>
+      <c r="F37">
+        <v>2188613</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>128</v>
+      </c>
+      <c r="N37" t="s">
+        <v>301</v>
+      </c>
+      <c r="P37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38">
+        <v>2865495</v>
+      </c>
+      <c r="F38">
+        <v>2869075</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>128</v>
+      </c>
+      <c r="M38" t="s">
+        <v>227</v>
+      </c>
+      <c r="N38" t="s">
+        <v>228</v>
+      </c>
+      <c r="P38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>293</v>
+      </c>
+      <c r="B39" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39">
+        <v>344595</v>
+      </c>
+      <c r="F39">
+        <v>351282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>295</v>
+      </c>
+      <c r="I39" t="s">
+        <v>296</v>
+      </c>
+      <c r="L39" t="s">
+        <v>297</v>
+      </c>
+      <c r="N39" t="s">
+        <v>298</v>
+      </c>
+      <c r="P39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40">
+        <v>1620657</v>
+      </c>
+      <c r="F40">
+        <v>1621150</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M40" t="s">
+        <v>233</v>
+      </c>
+      <c r="N40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41">
+        <v>988205</v>
+      </c>
+      <c r="F41">
+        <v>990548</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" t="s">
+        <v>128</v>
+      </c>
+      <c r="L41" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41" t="s">
+        <v>312</v>
+      </c>
+      <c r="N41" t="s">
+        <v>313</v>
+      </c>
+      <c r="P41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>237</v>
+      </c>
+      <c r="E42">
+        <v>117783</v>
+      </c>
+      <c r="F42">
+        <v>121847</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" t="s">
+        <v>128</v>
+      </c>
+      <c r="M42" t="s">
+        <v>159</v>
+      </c>
+      <c r="N42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:R45">
+    <sortCondition ref="A1:A45"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>